--- a/results/I3_N5_M2_T45_C150_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1387.469878928092</v>
+        <v>130.9522812893066</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.219000101089478</v>
+        <v>0.4909999370574951</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>32.95228128930657</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.390122443834318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.914294316987418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1360.750000001707</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.76072200618781</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.15891053163799</v>
+        <v>37.15891053163815</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152284</v>
+        <v>39.65345243823906</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>37.16435621671616</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000655</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.6500000000674</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000764</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.255000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000767</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>259.0850000001309</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>261.4150000001329</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>258.4150000001342</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>261.7500000001358</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>255.4900000001417</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>212.0400000000984</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>216.1900000000991</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>211.7650000001079</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>210.2250000001003</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>206.2250000001068</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000272</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000236</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2000000000222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.130000000025</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000042</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000388</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000351</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000366</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000041</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000708</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000686</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000693</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.1999999999645</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1299999999713</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>259.0850000001454</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>261.4150000001503</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.4150000001515</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>261.7500000001552</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>255.4900000001556</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.61500000006652</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21.81000000006441</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.46500000006506</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.19999999996037</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.12999999996714</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>109.0850000001416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>111.4150000001443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>108.4150000001466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.750000000148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>105.4900000001495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,122 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
